--- a/output/common_words/xls/common_words_among_websites_dict_translated_en.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict_translated_en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,60 +453,630 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>A3</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (54), https://www.xxx.at/ (6), https://www.zzz.at/ (11)</t>
+          <t>https://www.100-dakar.com (14), https://www.benjaminwahl.at (18), https://www.dasholzhaus.at (11), https://www.diequote.at (24), https://www.drehorgelkabarett.at (14), https://www.frautomani.at (4), https://www.ingridschiller.at (14), https://www.ottosaxinger.at (3), https://www.peligro.at (14), https://www.reinhardreisenzahn.com (4), https://www.schuledesungehorsams.at (2), https://www.skodone.at (18)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>Linz</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>330</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (52), https://www.xxx.at/ (6), https://www.zzz.at/ (10)</t>
+          <t>https://www.die-schule.at (91), https://www.finopoly.at (5), https://www.freie-medien.at (10), https://www.freizeitundkommunikation.at (3), https://www.linzfmr.at (18), https://www.pflueckt.at (3), https://www.qujochoe.org (174), https://www.steingeschichten.at (21), https://www.velodrom-linz.at (5)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>Art</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.yyy.at/ (50), https://www.xxx.at/ (5)</t>
+          <t>https://www.eipcp.net (13), https://www.faces-l.net (16), https://www.frauenkultur.at (16), https://www.kairus.org (6), https://www.kupf.at (6), https://www.negentropy-sport.net (2), https://www.radical-openness.org (8), https://www.triviale.at (4)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D2</t>
+          <t>Film</t>
         </is>
       </c>
       <c r="B5" t="n">
+        <v>52</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.apileofghosts.com (16), https://www.boxafilm.com (8), https://www.corpushomini.info (3), https://www.doublehappiness.at (12), https://www.hauntedspaces.net (5), https://www.retrogoldmine.com (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>36</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org (2), https://www.dasholzhaus.at (10), https://www.drehorgelkabarett.at (8), https://www.ingridschiller.at (8), https://www.peligro.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.platform-socialism.org (3), https://www.regional-express.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>More</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>95</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.derschueler.at (4), https://www.diebresche.org (23), https://www.lotta-gaffa.at (3), https://www.programmkinowels.at (65)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>49</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.das-kollektiv.at (8), https://www.feminismus-krawall.at (16), https://www.fiftitu.at (19), https://www.unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>39</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.frauenkultur.at (17), https://www.igkultur.at (14), https://www.interregnum.live (5), https://www.konsortium.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>32</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.hungaromedia.at (8), https://www.kuenstlerinnen.at (8), https://www.luckeneder-art.at (8), https://www.regional-express.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>294</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.alteschule-gutau.at (4), https://www.derschueler.at (5), https://www.die-schule.at (285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>202</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.fro.at (20), https://www.qujochoe.org (170), https://www.rudolfhabringer.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>177</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at (6), https://www.schulradiotag.at (169), https://www.wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Theater</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.remorauscher.at (41), https://www.theater-tamtam.org (5), https://www.theaternacht.at (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>18</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.hoerspuren.at (3), https://www.kulturviertelwochen.at (3), https://www.shanefinan.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Festival</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.apileofghosts.com (11), https://www.filmriss.at (5), https://www.radical-openness.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.apephonie.org (2), https://www.fiftitu.at (10), https://www.leodressel.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://www.xxx.at/ (5), https://www.zzz.at/ (8)</t>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.benjaminwahl.at (5), https://www.downinthehole.org (3), https://www.skodone.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Design</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>57</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.collective-ika.org (5), https://www.fraumayr.at (52)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>45</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.archivia.at (33), https://www.rotespuren.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.lauthals.org (16), https://www.totalsilence.de (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>18</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.donau-danube.eu (3), https://www.vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Citizens' council</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.buergerinnenrat.at (8), https://www.vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>18</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.eliot.at (7), https://www.grgr.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>17</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.ellaraidel.com (7), https://www.freie-medien.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>12</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.magdalenareiter.at (2), https://www.themagdalenaproject.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>20</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.anna-fiala.at (10), https://www.graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>16</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.argemarie.at (9), https://www.bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Labor</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>10</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.hoerstadt.at (2), https://www.migrazine.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.arttraffic-strand.net (2), https://www.bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Association</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>10</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.hr-ctrl.or.at (3), https://www.verein-ent.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>View</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>12</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.boxafilm.com (6), https://www.retrogoldmine.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Storage</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>12</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.radio-fri.at (6), https://www.theater-tamtam.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Februar</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>12</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.tabeacray.com (6), https://www.unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>8</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.andreaskurz.net (2), https://www.andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.dasfundus.net (5), https://www.workstation.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>8</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.anja.west.servus.at (3), https://www.geraldkogler.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>8</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.anna-kraher.de (5), https://www.lllk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>7</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://www.photosalonhelga.com (3), https://www.photosalonhelga.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.okabre.com (2), https://www.totalsilence.de (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.otre.at (2), https://www.ottosaxinger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.mute.audio (2), https://www.republicart.net (2)</t>
         </is>
       </c>
     </row>

--- a/output/common_words/xls/common_words_among_websites_dict_translated_en.xlsx
+++ b/output/common_words/xls/common_words_among_websites_dict_translated_en.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,2447 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Common Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Total Frequency</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Websites</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Art</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>294</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (11), https://archive.stwst.at (8), https://backlab.at (10), https://codex4art.com (3), https://cold.stwst.at (14), https://cold.stwst.org (14), https://donowtic.com (11), https://eipcp.net (13), https://faces-l.net (16), https://frauenkultur.at (16), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://kairus.org (6), https://kulturlandretten.at (30), https://liwoli.at (5), https://management.shanefinan.org (17), https://negentropy-sport.net (2), https://neu.faces-l.net (16), https://radical-openness.org (5), https://staging.igkultur-vbg.at (9), https://staging.igkultur.at (9), https://strom7.stwst.at (15), https://strom7.stwst.org (15), https://stwst48x4.stwst.at (4), https://transform.eipcp.net (13), https://triviale.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Stwst</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>322</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (3), https://ambulance.stwst.org (3), https://archive.stwst.at (12), https://cafestrom.at (4), https://codeofconduct.stwst.at (14), https://codeofconduct.stwst.org (14), https://cold.stwst.at (17), https://cold.stwst.org (17), https://events.stwst.at (109), https://freielitfasssaeule.stwst.at (7), https://freielitfasssaeule.stwst.org (7), https://herzblutwiese.stwst.at (14), https://herzblutwiese.stwst.org (14), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://nightcreaturesdeamons.stwst.at (15), https://nightcreaturesdeamons.stwst.org (15), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://redthread.stwst.at (8), https://redthread.stwst.org (8), https://stream.stwst.at (2), https://strom.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Linz</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>228</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (13), https://az-linz.servus.at (13), https://core.servus.at (10), https://die-schule.at (91), https://donautics.stwst.at (3), https://dorninger.servus.at (6), https://finopoly.at (5), https://freie-medien.at (10), https://freienetze.net (10), https://freizeitundkommunikation.at (3), https://linz.pflueckt.at (3), https://newcore.servus.at (10), https://old.maiz.at (5), https://pflueckt.at (3), https://sabrina.servus.at (5), https://servus.at (10), https://steingeschichten.at (21), https://wirag.kapu.or.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Cookies</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>214</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://100-dakar.com (14), https://benjaminwahl.at (18), https://beschallungsfrei.at (22), https://dasholzhaus.at (11), https://diequote.at (24), https://drehorgelkabarett.at (14), https://frautomani.at (3), https://helgaschager.servus.at (14), https://hoerstadt.at (22), https://ingridschiller.at (14), https://ottosaxinger.at (3), https://peligro.at (14), https://schager.servus.at (15), https://schuledesungehorsams.at (2), https://schuledesungehorsams.com (2), https://schuledesungehorsams.de (2), https://schuledesungehorsams.org (2), https://skodone.at (18)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>110</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://kuenstlerinnen.at (8), https://liquidautonomy.org (3), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://openlab.servus.at (8), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://public.corridorsounds.org (8), https://shop.base.at (2), https://support.oberhumer.com (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hallo</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://arselectronica.unibrennt.at (4), https://ausklang.unibrennt.at (4), https://bewegung.unibrennt.at (4), https://bologna.unibrennt.at (4), https://explosion.unibrennt.at (4), https://forderungen.unibrennt.at (4), https://kaiserwiese.stuwer.info (3), https://krise.unibrennt.at (4), https://magazin.stuwer.info (3), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (4), https://proteste.unibrennt.at (4), https://repression.unibrennt.at (4), https://selma-steinmetz.stuwer.info (3), https://unsere.unibrennt.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>City workshop</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>89</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://newcontext.stwst.at (7), https://newcontext.stwst.org (7), https://projects-test.stwst.at (7), https://projects-test.stwst.org (7), https://projects.stwst.at (7), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://strom7.stwst.at (11), https://strom7.stwst.org (11), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>163</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (11), https://frauenkultur.at (17), https://igkultur-vbg.at (26), https://igkultur.at (13), https://konsortium.at (3), https://niederoesterreich.igkultur.at (4), https://oberoesterreich.igkultur.at (4), https://oesterreich.igkultur.at (13), https://steiermark.igkultur.at (27), https://tirol.igkultur.at (4), https://translate.eipcp.net (7), https://vorarlberg.igkultur.at (26), https://wien.igkultur.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Unibrennt</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://arselectronica.unibrennt.at (5), https://ausklang.unibrennt.at (3), https://bewegung.unibrennt.at (5), https://bologna.unibrennt.at (3), https://explosion.unibrennt.at (4), https://forderungen.unibrennt.at (4), https://krise.unibrennt.at (5), https://phaenomen.unibrennt.at (4), https://programm.unibrennt.at (3), https://proteste.unibrennt.at (5), https://repression.unibrennt.at (5), https://unibrennt.at (16), https://unsere.unibrennt.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Rocky</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>96</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://bos.servus.at (8), https://code.kohlberger.net (8), https://doctorsforchoice.at (8), https://hungaromedia.at (8), https://kuenstlerinnen.at (8), https://luckeneder-art.at (8), https://mrtg.servus.at (8), https://openlab.servus.at (8), https://public.corridorsounds.org (8), https://support.oberhumer.com (8), https://wap.kapu.or.at (8), https://webcal.stwst.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>New</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>105</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://donautics.com (2), https://events.stwst.at (41), https://gibling.stwst.at (17), https://gibling.stwst.org (17), https://newsletter.stwst.at (7), https://newsletter.stwst.org (7), https://okabre.com (2), https://stwst48-all.stwst.at (3), https://stwst48-all.stwst.org (3), https://stwst48.stwst.at (3), https://stwst48.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>People</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>129</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://bettellobby.at (21), https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3), https://livingwithplanb.derieg.com (72), https://vonunten.at (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Project</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>43</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://field.shanefinan.org (3), https://hoerspuren.at (3), https://hoerspuren.com (3), https://hoerspuren.org (3), https://kulturviertelwochen.at (3), https://macalla.shanefinan.org (5), https://martisanchez.com (3), https://shanefinan.org (14), https://xn--hrspuren-n4a.at (3), https://xn--hrspuren-n4a.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Radio</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>90</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (3), https://7067.stwst.org (3), https://freie-radios.online (22), https://funda.ment.org (5), https://lehrredaktion.fro.at (5), https://online.freie-radios.at (22), https://rfs.fro.at (5), https://vfroe.dwerk.at (23), https://wegstrecken.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>41</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://48.stwst.at (4), https://48.stwst.org (4), https://main-test.stwst.at (4), https://main-test.stwst.org (4), https://mediana.at (9), https://stadtwerkstatt.at (4), https://stadtwerkstatt.com (4), https://stwst.at (4), https://stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Casino</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>39</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://filmdays.stwst.at (7), https://helgatraxler.at (3), https://helgatraxler.at (6), https://old.frf.at (5), https://photosalonhelga.at (3), https://photosalonhelga.at (6), https://photosalonhelga.com (3), https://photosalonhelga.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>28</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://asif.shanefinan.org (3), https://benjaminwahl.at (5), https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4), https://skodone.at (5), https://woodwideweb.shanefinan.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Bridge building</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>21</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://donau-danube.eu (3), https://donau-donava.eu (3), https://donau-duna.eu (3), https://donau-dunaj.eu (3), https://donau-dunarea.eu (3), https://donau-dunav.eu (3), https://donau-dunaw.eu (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Politics</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>36</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://niederoesterreich.igkultur.at (5), https://oberoesterreich.igkultur.at (6), https://steiermark.igkultur.at (10), https://tirol.igkultur.at (5), https://wien.igkultur.at (7), https://wirtshauswissenschaften.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Years</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>25</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://dasfundus.net (5), https://ista.unibrennt.at (2), https://konsolidierung.unibrennt.at (2), https://unibrennt.at (9), https://workstation.or.at (4), https://zehnjahre.pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hours</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>34</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://stwst48-all.stwst.at (7), https://stwst48-all.stwst.org (7), https://stwst48.stwst.at (7), https://stwst48.stwst.org (7), https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Server</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://fss.stwst.at (4), https://oberhumer.name (5), https://quiz.kairus.org (4), https://survey.kairus.org (4), https://test.kairus.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Sept</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>12</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2), https://stwst48x7.stwst.at (2), https://stwst48x7.stwst.org (2), https://stwst48x9.stwst.at (2), https://stwst48x9.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Video</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>37</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://joreg.ath.cx (7), https://something-moved.shanefinan.org (7), https://tschneid.servus.at (19), https://tv.stwst.at (2), https://tv.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Film</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>44</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (16), https://boxafilm.com (8), https://corpushomini.info (3), https://doublehappiness.at (12), https://hauntedspaces.net (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Festival</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>37</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://apileofghosts.com (11), https://fdr.at (9), https://filmriss.at (5), https://liwoli.at (6), https://radical-openness.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Website</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>36</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://apephonie.org (2), https://dasholzhaus.at (10), https://drehorgelkabarett.at (8), https://ingridschiller.at (8), https://peligro.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Working</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://apephonie.org (2), https://fiftitu.at (7), https://leodressel.net (2), https://redthread.stwst.at (9), https://redthread.stwst.org (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Servus</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>24</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://core.servus.at (5), https://freienetze.net (5), https://newcore.servus.at (5), https://playground225.servus.at (4), https://servus.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Audioguides</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://hoerspuren.at (5), https://hoerspuren.com (5), https://hoerspuren.org (5), https://xn--hrspuren-n4a.at (5), https://xn--hrspuren-n4a.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Index</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>12</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://apt2.servus.at (2), https://download.cinemanext.at (2), https://femaleartistindex.org (4), https://public.timesup.org (2), https://webhistory.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Uhr</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>36</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://az-linz.servus.at (8), https://maydaylinz.at (8), https://rudolfhabringer.at (12), https://wirag.kapu.or.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://kmptt.servus.at (8), https://moodle.maiz.at (2), https://nurdietoten.at (10), https://qujochoe.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Copper</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://innovationstopf.at (7), https://kupf.at (10), https://kupfakademie.at (5), https://lehrgang.kupf.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Practice</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>28</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://burgenland.igkultur.at (9), https://igkikk.at (8), https://kaernten.igkultur.at (8), https://wsp.plusea.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Que</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>17</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://balonlebowski.com (6), https://deutero.net (7), https://dunkelkammer.net (2), https://sessions.dunkelkammer.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Cafe</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>14</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://cafestrom.at (4), https://codeofconduct.stwst.at (3), https://codeofconduct.stwst.org (3), https://strom.stwst.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Stuwerviertels</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>12</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://arnetzhoferstrasse.stuwer.info (3), https://kaiserwiese.stuwer.info (3), https://magazin.stuwer.info (3), https://selma-steinmetz.stuwer.info (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Setup</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://air.stwst.at (2), https://doku.kairus.org (2), https://dokuwiki.servus.at (3), https://iooptdoku.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Like</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>12</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://liquidautonomy.org (3), https://platform-socialism.org (3), https://plattform-sozialismus.org (3), https://wiki.platform-socialism.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>295</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://alteschule-gutau.at (5), https://derschueler.at (5), https://die-schule.at (285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Vienna</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>121</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (58), https://kulturjob.at (58), https://theaternyx.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Gibling</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>74</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://gibling.stwst.at (36), https://gibling.stwst.org (36), https://punkaustria.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Loading</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>78</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://freie-radios.online (26), https://online.freie-radios.at (26), https://vfroe.dwerk.at (26)</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>More</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>30</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://derschueler.at (4), https://diebresche.org (23), https://lotta-gaffa.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>30</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://das-kollektiv.at (8), https://feminismus-krawall.at (16), https://unkraut-comics.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Live</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://dorninger.servus.at (6), https://finopoly.at (16), https://groove.ment.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>46</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://palmfiction.net (16), https://ta.stwst.at (15), https://ta.stwst.org (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Faces</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>40</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://archive.faces-l.net (10), https://faces-l.net (15), https://neu.faces-l.net (15)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Citizens' council</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>27</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://neuwahlvonunten.at (4), https://vonunten.at (15), https://xn--brgerinnenrat-wob.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://migrazine.at (14), https://neu.migrazine.at (14), https://space.depart.ment.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>34</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://staging.igkultur-vbg.at (13), https://staging.igkultur.at (13), https://themagdalenaproject.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Information</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>34</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://donowtic.com (8), https://infolab.stwst.at (13), https://infolab.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Reading</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>34</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://coc.timesup.org (10), https://stephanroiss.at (12), https://thomasbaum.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>German</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>16</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2), https://umfrage.servus.at (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Vonerickling</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>30</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (10), https://schaukasten.stuwer.info (10), https://treffen.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Javascript</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>18</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://coding.servus.at (10), https://cp.servus.at (2), https://kuva.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Art space</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>18</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://archiv.kunstraum.at (10), https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>University</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>25</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (9), https://euroby2008.stwst.org (9), https://field.shanefinan.org (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>21</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://igkultur.at (9), https://obssys.com (3), https://oesterreich.igkultur.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Exhibition</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>23</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://argemarie.at (9), https://as-tree.shanefinan.org (7), https://bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Migrant women</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>17</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://maiz.at (5), https://old.maiz.at (8), https://playground224.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Public</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>16</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (5), https://kellerabteil.servus.at (5), https://npk.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>18</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (6), https://diyrepaircafe.ig-demokratie.at (6), https://repaircafe.ig-demokratie.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Andreas</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaskurz.net (2), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>13</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://brotlosekunst.kapu.or.at (3), https://freielitfasssaeule.stwst.at (5), https://freielitfasssaeule.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Texts</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>12</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://gegenschwarzblau.servus.at (4), https://gegenschwarzblau.stwst.at (4), https://gegenschwarzblau.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Pmk</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>10</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3), https://zehnjahre.pmk.or.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Diydemokratierepaircafe</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>12</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://demokratierepaircafe.ig-demokratie.at (4), https://diyrepaircafe.ig-demokratie.at (4), https://repaircafe.ig-demokratie.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Password</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://kanboard.downinthehole.org (2), https://kb.servus.at (2), https://webstats.servus.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>6</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://explorer.stwst.at (2), https://quasikunst.at (2), https://quasikunst.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Irrationalisation institute</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>6</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Irrationalisation</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>6</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://irrational.isation.org (2), https://isation.org (2), https://rational.isation.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Internal</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>6</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://quiz.kairus.org (2), https://survey.kairus.org (2), https://test.kairus.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Electronica</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://meatspace.stwst.at (2), https://meatspace.stwst.org (2), https://walterschalter.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Bruttolohn</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>148</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://kultur-jobs.at (74), https://kulturjob.at (74)</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Workshop</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>53</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://howtogetwhatyouwant.at (34), https://mzbaltazarslaboratory.org (19)</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Earth</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>42</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://argemarie.at (9), https://lottaschreibt.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>37</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://alt.visionswerkstatt.at (4), https://archivia.at (33)</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>…read</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>50</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (25), https://zeitung.servus.at (25)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Upper austria</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>27</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://buendnis.at (3), https://kulturlandretten.at (24)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Pay</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>29</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (22), https://salzburg.igkultur.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Comments</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>31</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://sunobwegeser.net (21), https://treffen.stuwer.info (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Network</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>40</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (20), https://mns.stwst.org (20)</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>27</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://fairpaykultur.at (20), https://salzburg.igkultur.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Photo</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>32</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://diereferentin.servus.at (16), https://zeitung.servus.at (16)</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Fmr</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>20</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (14), https://21.linzfmr.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Vorarlberg</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>26</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://igkultur-vbg.at (13), https://vorarlberg.igkultur.at (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>St agnes</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>26</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://ausstellung.stuwer.info (13), https://schaukasten.stuwer.info (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Mycelium</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>26</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://mns.stwst.at (13), https://mns.stwst.org (13)</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>24</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://backwood.at (13), https://maydaylinz.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Collective</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>17</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://das-kollektiv.at (5), https://shanefinan.org (12)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Work</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>18</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://eliot.at (7), https://grgr.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Werner</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>22</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://rotespuren.at (11), https://veranstaltungen.rotespuren.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Night</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>22</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nightcreaturesdeamons.stwst.at (11), https://nightcreaturesdeamons.stwst.org (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>20</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://deathpositiv.at (9), https://tschneid.servus.at (11)</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Read</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>17</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://ellaraidel.com (7), https://freie-medien.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Quasi-art</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>20</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (10), https://quasikunst.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Euroby</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://euroby2008.stwst.at (10), https://euroby2008.stwst.org (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Course</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>16</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://kupfakademie.at (10), https://lehrgang.kupf.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>20</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://anna-fiala.at (10), https://graztermine.at (10)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Digital</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>16</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://19.linzfmr.at (9), https://21.linzfmr.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Carinthia koroška</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>18</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://igkikk.at (9), https://kaernten.igkultur.at (9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>World</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>16</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://quasikunst.stwst.at (8), https://quasikunst.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Was</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>16</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (8), https://stoer.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Meadows</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>16</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (8), https://filialeauwiesen.stwst.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Magdalena</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>10</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://magdalenareiter.at (2), https://themagdalenaproject.org (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Labor</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>16</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://migrazine.at (8), https://neu.migrazine.at (8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Sex work</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>12</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://lustwerkstatt.at (7), https://rotlicht.stuwer.info (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Our</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>14</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://beschallungsfrei.at (7), https://hoerstadt.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>One</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://arttraffic-strand.net (2), https://bb15.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Association</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>10</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://hr-ctrl.or.at (3), https://verein-ent.at (7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Zingerle</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>12</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://andreas.kairus.org (6), https://andreaszingerle.com (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Stay</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>12</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (6), https://stwst48x5.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>12</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://newsletter.stwst.at (6), https://newsletter.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>8</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://dsignweek.servus.at (6), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Liquid</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>12</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://kellerabteil.org (6), https://kellerabteil.servus.at (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Internet</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (6), https://versorgerin.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Hauses</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>12</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://stoer.stwst.at (6), https://stoer.stwst.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>12</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (6), https://waytoshambhala.org (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Would</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>10</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://waytoshambala.org (5), https://waytoshambhala.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Something</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>7</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://kuk-linz.at (2), https://something-moved.shanefinan.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Signals</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>10</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://7067.stwst.at (5), https://7067.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Read more</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>9</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://lustwerkstatt.at (5), https://playground225.servus.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Provider</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>10</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://versorgerin.stwst.at (5), https://versorgerin.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Mind</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>10</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (5), https://stwst48x3.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>8</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://anja.west.servus.at (3), https://geraldkogler.com (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Infolab</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>10</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://infolab.stwst.at (5), https://infolab.stwst.org (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Concert</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>10</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://kapu.at (5), https://kapu.or.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Anton</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>8</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://antonraidel.com (3), https://kuva.at (5)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Anna</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://anna-kraher.de (5), https://lllk.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Unfinished</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://stwst48x5.stwst.at (4), https://stwst48x5.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Transitional senate</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Subsidiary</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>8</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://filialeauwiesen.stwst.at (4), https://filialeauwiesen.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Place</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>8</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://uebergangssenat.stwst.at (4), https://uebergangssenat.stwst.org (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Integration counselling digimi</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://piramidops.at (4), https://piramidops.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Digitisation</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://piramidops.at (4), https://piramidops.com (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Commit</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://cityofrespect.kunstraum.at (4), https://kunstraum.at (4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Tickets</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>6</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://kapu.at (3), https://kapu.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>5</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://neu.tinaleisch.at (3), https://tinaleisch.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Non</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>6</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>https://stwst48x2.stwst.at (3), https://stwst48x2.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Modernity</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>6</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (3), https://service.kupfticket.com (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Less</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>6</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>https://stwst48x3.stwst.at (3), https://stwst48x3.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>5</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>https://dasdreieck.at (3), https://davidebevilacqua.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>6</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (3), https://stwst48x8.stwst.org (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Almost</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>6</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>https://neu.pmk.or.at (3), https://pmk.or.at (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Toolsshow</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>4</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Stories</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>4</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>https://stories.buergerinnenrat.at (2), https://stories.xn--brgerinnenrat-wob.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Statistics</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>4</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Questions</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>4</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>https://stwst48x6.stwst.at (2), https://stwst48x6.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Picks</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>4</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>https://linz.pflueckt.at (2), https://pflueckt.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Otto</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>4</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>https://otre.at (2), https://ottosaxinger.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Last</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>4</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>https://stats.fro.at (2), https://stats.kunstraum.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Home page</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>4</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>https://kupfservices.com (2), https://service.kupfticket.com (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Disconnected</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>4</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>https://stwst48x8.stwst.at (2), https://stwst48x8.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Deenglish</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>https://kurse.das-kollektiv.at (2), https://moodle.lernplattform.das-kollektiv.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Contents</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>4</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>https://mute.audio (2), https://republicart.net (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Content</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>4</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>https://dokuwiki.davidebevilacqua.com (2), https://wiki.stwst.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Authorization</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>4</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>https://cba-monitor.fro.at (2), https://monitoring.servus.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Angemeldet</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>4</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>https://moodle.digimathe.maiz.at (2), https://moodle.prequalsteps.maiz.at (2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Ambulance</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>https://ambulance.stwst.at (2), https://ambulance.stwst.org (2)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>